--- a/biology/Botanique/Decaisnea_insignis/Decaisnea_insignis.xlsx
+++ b/biology/Botanique/Decaisnea_insignis/Decaisnea_insignis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Decaisnea insignis est un arbuste de la famille des Lardizabalacées originaire des régions tempérées de l'Himalaya.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce est l'espèce type du genre dont elle a toutes les caractéristiques. En plus, peuvent être notées :
 une taille de moins de 5 m de haut, au port faiblement branchu
-une couleur jaune du fruit ainsi que le décrit Joseph Dalton Hooker[1] et que le suggère la planche de Fitch
+une couleur jaune du fruit ainsi que le décrit Joseph Dalton Hooker et que le suggère la planche de Fitch
 une taille du fruit de 10 à 15 cm de long
 une forme recourbée ainsi qu'un surface très mamelonnée du fruit
 une graine brune de 1,5 cm de diamètre.</t>
@@ -546,7 +560,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite une première fois en 1845 (publié en 1848) sous le nom Slackia insignis Griff. par William Griffith lors de son voyage dans l'Himalaya.
 En 1855, Joseph Dalton Hooker et Thomas Thomson la renomment, pour lever l'homonymie sur le genre, en Decaisnea insignis.
@@ -580,9 +596,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des zones himalayennes : Bhutan, Chine (Sud Anhui, Sud Gansu, Est Guangxi, Guizhou, Hubei, Hunan, Jiangxi, Sud Shaanxi, Sichuan, Sud-Est Xizang, Yunnan, Est Zhejiang), Inde (Sikkim), Népal[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des zones himalayennes : Bhutan, Chine (Sud Anhui, Sud Gansu, Est Guangxi, Guizhou, Hubei, Hunan, Jiangxi, Sud Shaanxi, Sichuan, Sud-Est Xizang, Yunnan, Est Zhejiang), Inde (Sikkim), Népal.
 Son habitat se situe principalement dans des zones forestières assez humides d'altitude (entre 900 et 3 600 m).
 </t>
         </is>
@@ -612,7 +630,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits de cette espèce sont comestibles (pulpe).
 Sauf à confondre cette espèce avec Decainsnea fargesii, il est difficile de parler d'utilisation ornementale : c'est en effet le caractère spectaculaire du fruit de Decaisnea fargesii qui explique d'abord son utilisation horticole.
